--- a/Results/chart.xlsx
+++ b/Results/chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CovidFs\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE80FC-3815-4BEA-AA1C-610FA95D0FA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DC0201-6532-4BB2-97FF-9F0C7641D46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,126 +217,102 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$33</c:f>
+              <c:f>Sheet1!$A$24:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43910</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43911</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43912</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43913</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43914</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43915</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43916</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43917</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43919</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43920</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43921</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43922</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43925</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43926</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43927</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$33</c:f>
+              <c:f>Sheet1!$B$24:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>174.37348238302999</c:v>
+                  <c:v>1004.9519997254999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217.07532698871901</c:v>
+                  <c:v>1250.7932806737799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270.16644028928101</c:v>
+                  <c:v>1556.5699870665001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>336.21160620730802</c:v>
+                  <c:v>1936.9859406686001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>418.43866070589098</c:v>
+                  <c:v>2410.3759156804299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>520.86594939871702</c:v>
+                  <c:v>2999.48097741641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>648.45201496026596</c:v>
+                  <c:v>3732.3962149030599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>807.30031446388205</c:v>
+                  <c:v>4643.8058107070101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1004.9519997254999</c:v>
+                  <c:v>5776.6082243082701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1250.7932806737799</c:v>
+                  <c:v>7183.9794246649599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1556.5699870665001</c:v>
+                  <c:v>8931.86551075241</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1936.9859406686001</c:v>
+                  <c:v>11101.8748941249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2410.3759156804299</c:v>
+                  <c:v>13794.5649894086</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2999.48097741641</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3732.3962149030599</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4643.8058107070101</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5776.6082243082701</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7183.9794246649599</c:v>
+                  <c:v>17133.217289859102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,126 +344,102 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$33</c:f>
+              <c:f>Sheet1!$A$24:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43910</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43911</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43912</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43913</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43914</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43915</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43916</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43917</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43919</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43920</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43921</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43922</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43925</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43926</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43927</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$C$33</c:f>
+              <c:f>Sheet1!$C$24:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>177</c:v>
+                  <c:v>1019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>233</c:v>
+                  <c:v>1228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>281</c:v>
+                  <c:v>1408</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>335</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>422</c:v>
+                  <c:v>2352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>463</c:v>
+                  <c:v>2921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>578</c:v>
+                  <c:v>3605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>759</c:v>
+                  <c:v>4313</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1019</c:v>
+                  <c:v>4313</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1228</c:v>
+                  <c:v>4313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1408</c:v>
+                  <c:v>4313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1789</c:v>
+                  <c:v>4313</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4313</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,126 +471,102 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$33</c:f>
+              <c:f>Sheet1!$A$24:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43910</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43911</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43912</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43913</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43914</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43915</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43916</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43917</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43919</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43920</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43921</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43922</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43923</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43924</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43925</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43926</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43927</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$D$33</c:f>
+              <c:f>Sheet1!$D$24:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>174.37348238302999</c:v>
+                  <c:v>1004.9519997254999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>217.07532698871901</c:v>
+                  <c:v>1250.7932806737799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270.16644028928101</c:v>
+                  <c:v>1556.5699870665001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>336.21160620730802</c:v>
+                  <c:v>1936.9859406686001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>418.43866070589098</c:v>
+                  <c:v>2410.3759156804299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>520.86594939871702</c:v>
+                  <c:v>2517.4859269051499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>648.45201496026596</c:v>
+                  <c:v>2650.8221048697801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>807.30031446388205</c:v>
+                  <c:v>2816.7531989558702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1004.9519997254999</c:v>
+                  <c:v>3023.1802461217098</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1250.7932806737799</c:v>
+                  <c:v>3279.9339545395001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1556.5699870665001</c:v>
+                  <c:v>3599.2626420913498</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1936.9859406686001</c:v>
+                  <c:v>3900.4374814923599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2410.3759156804299</c:v>
+                  <c:v>4179.1072100121301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2517.4859269051499</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2650.8221048697801</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2816.7531989558702</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3023.1802461217098</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3279.9339545395001</c:v>
+                  <c:v>4429.8553501774204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,129 +2279,129 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>43910</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <f>[1]modeled!$B16</f>
         <v>174.37348238302999</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>177</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <f>[2]modeled1!$B16</f>
         <v>174.37348238302999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>43911</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <f>[1]modeled!$B17</f>
         <v>217.07532698871901</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>233</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <f>[2]modeled1!$B17</f>
         <v>217.07532698871901</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>43912</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <f>[1]modeled!$B18</f>
         <v>270.16644028928101</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>281</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <f>[2]modeled1!$B18</f>
         <v>270.16644028928101</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>43913</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <f>[1]modeled!$B19</f>
         <v>336.21160620730802</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>335</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <f>[2]modeled1!$B19</f>
         <v>336.21160620730802</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>43914</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <f>[1]modeled!$B20</f>
         <v>418.43866070589098</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>422</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <f>[2]modeled1!$B20</f>
         <v>418.43866070589098</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>43915</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <f>[1]modeled!$B21</f>
         <v>520.86594939871702</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>463</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <f>[2]modeled1!$B21</f>
         <v>520.86594939871702</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>43916</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <f>[1]modeled!$B22</f>
         <v>648.45201496026596</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>578</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <f>[2]modeled1!$B22</f>
         <v>648.45201496026596</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>43917</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <f>[1]modeled!$B23</f>
         <v>807.30031446388205</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>759</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <f>[2]modeled1!$B23</f>
         <v>807.30031446388205</v>
       </c>
@@ -2551,7 +2479,7 @@
         <v>2410.3759156804299</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2352</v>
       </c>
       <c r="D28">
         <f>[2]modeled1!$B28</f>
@@ -2567,7 +2495,7 @@
         <v>2999.48097741641</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2921</v>
       </c>
       <c r="D29">
         <f>[2]modeled1!$B29</f>
@@ -2583,7 +2511,7 @@
         <v>3732.3962149030599</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3605</v>
       </c>
       <c r="D30">
         <f>[2]modeled1!$B30</f>
@@ -2599,7 +2527,7 @@
         <v>4643.8058107070101</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>4313</v>
       </c>
       <c r="D31">
         <f>[2]modeled1!$B31</f>
@@ -2615,7 +2543,8 @@
         <v>5776.6082243082701</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <f t="shared" ref="C32:C37" si="0">C31</f>
+        <v>4313</v>
       </c>
       <c r="D32">
         <f>[2]modeled1!$B32</f>
@@ -2631,7 +2560,8 @@
         <v>7183.9794246649599</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4313</v>
       </c>
       <c r="D33">
         <f>[2]modeled1!$B33</f>
@@ -2647,7 +2577,8 @@
         <v>8931.86551075241</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4313</v>
       </c>
       <c r="D34">
         <f>[2]modeled1!$B34</f>
@@ -2663,7 +2594,8 @@
         <v>11101.8748941249</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4313</v>
       </c>
       <c r="D35">
         <f>[2]modeled1!$B35</f>
@@ -2679,7 +2611,8 @@
         <v>13794.5649894086</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4313</v>
       </c>
       <c r="D36">
         <f>[2]modeled1!$B36</f>
@@ -2695,7 +2628,8 @@
         <v>17133.217289859102</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4313</v>
       </c>
       <c r="D37">
         <f>[2]modeled1!$B37</f>

--- a/Results/chart.xlsx
+++ b/Results/chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CovidFs\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DC0201-6532-4BB2-97FF-9F0C7641D46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F49B21-A2CF-4613-9882-E099E5C286D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -395,10 +396,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$24:$C$37</c:f>
+              <c:f>Sheet1!$C$24:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1019</c:v>
                 </c:pt>
@@ -421,24 +422,6 @@
                   <c:v>3605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4313</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4313</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4313</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4313</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4313</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4313</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>4313</c:v>
                 </c:pt>
               </c:numCache>
@@ -1756,6 +1739,170 @@
         <row r="37">
           <cell r="B37">
             <v>4429.8553501774204</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="COVID19_by_day"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="43">
+          <cell r="G43">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="G44">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="G45">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="G51">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="G54">
+            <v>71</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="G55">
+            <v>103</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="G56">
+            <v>144</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="G57">
+            <v>177</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="G58">
+            <v>233</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="G59">
+            <v>281</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="G60">
+            <v>335</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="G61">
+            <v>422</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="G62">
+            <v>463</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="G63">
+            <v>578</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="G64">
+            <v>759</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="G65">
+            <v>1019</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="G66">
+            <v>1228</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="G67">
+            <v>1408</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="G68">
+            <v>1789</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="G69">
+            <v>2352</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="G70">
+            <v>2921</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="G71">
+            <v>3605</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="G72">
+            <v>4313</v>
           </cell>
         </row>
       </sheetData>
@@ -2029,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,6 +2210,7 @@
         <v>8.1357604512260302</v>
       </c>
       <c r="C2" s="4">
+        <f>[3]COVID19_by_day!G43</f>
         <v>1</v>
       </c>
       <c r="D2" s="4">
@@ -2079,6 +2227,7 @@
         <v>10.115986363248201</v>
       </c>
       <c r="C3" s="4">
+        <f>[3]COVID19_by_day!G44</f>
         <v>2</v>
       </c>
       <c r="D3" s="4">
@@ -2095,6 +2244,7 @@
         <v>12.5770852970562</v>
       </c>
       <c r="C4" s="4">
+        <f>[3]COVID19_by_day!G45</f>
         <v>2</v>
       </c>
       <c r="D4" s="4">
@@ -2111,6 +2261,7 @@
         <v>15.6472401858976</v>
       </c>
       <c r="C5" s="4">
+        <f>[3]COVID19_by_day!G46</f>
         <v>3</v>
       </c>
       <c r="D5" s="4">
@@ -2127,6 +2278,7 @@
         <v>19.484056525395001</v>
       </c>
       <c r="C6" s="4">
+        <f>[3]COVID19_by_day!G47</f>
         <v>6</v>
       </c>
       <c r="D6" s="4">
@@ -2143,6 +2295,7 @@
         <v>24.2756696552546</v>
       </c>
       <c r="C7" s="4">
+        <f>[3]COVID19_by_day!G48</f>
         <v>6</v>
       </c>
       <c r="D7" s="4">
@@ -2159,6 +2312,7 @@
         <v>30.244552668062202</v>
       </c>
       <c r="C8" s="4">
+        <f>[3]COVID19_by_day!G49</f>
         <v>8</v>
       </c>
       <c r="D8" s="4">
@@ -2175,6 +2329,7 @@
         <v>37.661814309310401</v>
       </c>
       <c r="C9" s="4">
+        <f>[3]COVID19_by_day!G50</f>
         <v>10</v>
       </c>
       <c r="D9" s="4">
@@ -2191,6 +2346,7 @@
         <v>46.870440241827701</v>
       </c>
       <c r="C10" s="4">
+        <f>[3]COVID19_by_day!G51</f>
         <v>21</v>
       </c>
       <c r="D10" s="4">
@@ -2207,6 +2363,7 @@
         <v>58.312197823817698</v>
       </c>
       <c r="C11" s="4">
+        <f>[3]COVID19_by_day!G52</f>
         <v>35</v>
       </c>
       <c r="D11" s="4">
@@ -2223,6 +2380,7 @@
         <v>72.553138252384798</v>
       </c>
       <c r="C12" s="4">
+        <f>[3]COVID19_by_day!G53</f>
         <v>55</v>
       </c>
       <c r="D12" s="4">
@@ -2239,6 +2397,7 @@
         <v>90.305462625505101</v>
       </c>
       <c r="C13" s="4">
+        <f>[3]COVID19_by_day!G54</f>
         <v>71</v>
       </c>
       <c r="D13" s="4">
@@ -2255,6 +2414,7 @@
         <v>112.444439555996</v>
       </c>
       <c r="C14" s="4">
+        <f>[3]COVID19_by_day!G55</f>
         <v>103</v>
       </c>
       <c r="D14" s="4">
@@ -2271,6 +2431,7 @@
         <v>140.03384589181101</v>
       </c>
       <c r="C15" s="4">
+        <f>[3]COVID19_by_day!G56</f>
         <v>144</v>
       </c>
       <c r="D15" s="4">
@@ -2287,6 +2448,7 @@
         <v>174.37348238302999</v>
       </c>
       <c r="C16" s="4">
+        <f>[3]COVID19_by_day!G57</f>
         <v>177</v>
       </c>
       <c r="D16" s="4">
@@ -2303,6 +2465,7 @@
         <v>217.07532698871901</v>
       </c>
       <c r="C17" s="4">
+        <f>[3]COVID19_by_day!G58</f>
         <v>233</v>
       </c>
       <c r="D17" s="4">
@@ -2319,6 +2482,7 @@
         <v>270.16644028928101</v>
       </c>
       <c r="C18" s="4">
+        <f>[3]COVID19_by_day!G59</f>
         <v>281</v>
       </c>
       <c r="D18" s="4">
@@ -2335,6 +2499,7 @@
         <v>336.21160620730802</v>
       </c>
       <c r="C19" s="4">
+        <f>[3]COVID19_by_day!G60</f>
         <v>335</v>
       </c>
       <c r="D19" s="4">
@@ -2351,6 +2516,7 @@
         <v>418.43866070589098</v>
       </c>
       <c r="C20" s="4">
+        <f>[3]COVID19_by_day!G61</f>
         <v>422</v>
       </c>
       <c r="D20" s="4">
@@ -2367,6 +2533,7 @@
         <v>520.86594939871702</v>
       </c>
       <c r="C21" s="4">
+        <f>[3]COVID19_by_day!G62</f>
         <v>463</v>
       </c>
       <c r="D21" s="4">
@@ -2383,6 +2550,7 @@
         <v>648.45201496026596</v>
       </c>
       <c r="C22" s="4">
+        <f>[3]COVID19_by_day!G63</f>
         <v>578</v>
       </c>
       <c r="D22" s="4">
@@ -2399,6 +2567,7 @@
         <v>807.30031446388205</v>
       </c>
       <c r="C23" s="4">
+        <f>[3]COVID19_by_day!G64</f>
         <v>759</v>
       </c>
       <c r="D23" s="4">
@@ -2415,6 +2584,7 @@
         <v>1004.9519997254999</v>
       </c>
       <c r="C24">
+        <f>[3]COVID19_by_day!G65</f>
         <v>1019</v>
       </c>
       <c r="D24">
@@ -2431,6 +2601,7 @@
         <v>1250.7932806737799</v>
       </c>
       <c r="C25">
+        <f>[3]COVID19_by_day!G66</f>
         <v>1228</v>
       </c>
       <c r="D25">
@@ -2447,6 +2618,7 @@
         <v>1556.5699870665001</v>
       </c>
       <c r="C26">
+        <f>[3]COVID19_by_day!G67</f>
         <v>1408</v>
       </c>
       <c r="D26">
@@ -2463,6 +2635,7 @@
         <v>1936.9859406686001</v>
       </c>
       <c r="C27">
+        <f>[3]COVID19_by_day!G68</f>
         <v>1789</v>
       </c>
       <c r="D27">
@@ -2479,6 +2652,7 @@
         <v>2410.3759156804299</v>
       </c>
       <c r="C28">
+        <f>[3]COVID19_by_day!G69</f>
         <v>2352</v>
       </c>
       <c r="D28">
@@ -2495,6 +2669,7 @@
         <v>2999.48097741641</v>
       </c>
       <c r="C29">
+        <f>[3]COVID19_by_day!G70</f>
         <v>2921</v>
       </c>
       <c r="D29">
@@ -2511,6 +2686,7 @@
         <v>3732.3962149030599</v>
       </c>
       <c r="C30">
+        <f>[3]COVID19_by_day!G71</f>
         <v>3605</v>
       </c>
       <c r="D30">
@@ -2527,6 +2703,7 @@
         <v>4643.8058107070101</v>
       </c>
       <c r="C31">
+        <f>[3]COVID19_by_day!G72</f>
         <v>4313</v>
       </c>
       <c r="D31">
@@ -2543,8 +2720,8 @@
         <v>5776.6082243082701</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:C37" si="0">C31</f>
-        <v>4313</v>
+        <f>[3]COVID19_by_day!G73</f>
+        <v>0</v>
       </c>
       <c r="D32">
         <f>[2]modeled1!$B32</f>
@@ -2560,8 +2737,8 @@
         <v>7183.9794246649599</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>4313</v>
+        <f>[3]COVID19_by_day!G74</f>
+        <v>0</v>
       </c>
       <c r="D33">
         <f>[2]modeled1!$B33</f>
@@ -2577,8 +2754,8 @@
         <v>8931.86551075241</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>4313</v>
+        <f>[3]COVID19_by_day!G75</f>
+        <v>0</v>
       </c>
       <c r="D34">
         <f>[2]modeled1!$B34</f>
@@ -2594,8 +2771,8 @@
         <v>11101.8748941249</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>4313</v>
+        <f>[3]COVID19_by_day!G76</f>
+        <v>0</v>
       </c>
       <c r="D35">
         <f>[2]modeled1!$B35</f>
@@ -2611,8 +2788,8 @@
         <v>13794.5649894086</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>4313</v>
+        <f>[3]COVID19_by_day!G77</f>
+        <v>0</v>
       </c>
       <c r="D36">
         <f>[2]modeled1!$B36</f>
@@ -2628,8 +2805,8 @@
         <v>17133.217289859102</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>4313</v>
+        <f>[3]COVID19_by_day!G78</f>
+        <v>0</v>
       </c>
       <c r="D37">
         <f>[2]modeled1!$B37</f>

--- a/Results/chart.xlsx
+++ b/Results/chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CovidFs\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F49B21-A2CF-4613-9882-E099E5C286D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150BB160-CC62-4252-9385-0C4891D6FA70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,46 +274,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1004.9519997254999</c:v>
+                  <c:v>942.71774998769001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1250.7932806737799</c:v>
+                  <c:v>1167.64718837089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1556.5699870665001</c:v>
+                  <c:v>1446.0485637791401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1936.9859406686001</c:v>
+                  <c:v>1790.71155044837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2410.3759156804299</c:v>
+                  <c:v>2217.5214683229401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2999.48097741641</c:v>
+                  <c:v>2746.1006383829199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3732.3962149030599</c:v>
+                  <c:v>3400.5809001846701</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4643.8058107070101</c:v>
+                  <c:v>4210.6065430700401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5776.6082243082701</c:v>
+                  <c:v>5212.6597056727796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7183.9794246649599</c:v>
+                  <c:v>6451.7528398477598</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8931.86551075241</c:v>
+                  <c:v>7983.4802572260796</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11101.8748941249</c:v>
+                  <c:v>9876.3969907439805</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13794.5649894086</c:v>
+                  <c:v>12214.709874628001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17133.217289859102</c:v>
+                  <c:v>15101.353575896101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,10 +396,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$24:$C$31</c:f>
+              <c:f>Sheet1!$C$24:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1019</c:v>
                 </c:pt>
@@ -423,6 +423,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,46 +513,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1004.9519997254999</c:v>
+                  <c:v>942.71774998769001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1250.7932806737799</c:v>
+                  <c:v>1167.64718837089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1556.5699870665001</c:v>
+                  <c:v>1446.0485637791401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1936.9859406686001</c:v>
+                  <c:v>1790.71155044837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2410.3759156804299</c:v>
+                  <c:v>2217.5214683229401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2517.4859269051499</c:v>
+                  <c:v>2317.25338720219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2650.8221048697801</c:v>
+                  <c:v>2440.80523044854</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2816.7531989558702</c:v>
+                  <c:v>2593.8204517017002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3023.1802461217098</c:v>
+                  <c:v>2783.2629652906498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3279.9339545395001</c:v>
+                  <c:v>3017.75338921402</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3599.2626420913498</c:v>
+                  <c:v>3307.98229084575</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3900.4374814923599</c:v>
+                  <c:v>3581.7769512728801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4179.1072100121301</c:v>
+                  <c:v>3835.2928561284102</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4429.8553501774204</c:v>
+                  <c:v>4063.7702179013299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1369,182 +1372,182 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>8.1357604512260302</v>
+            <v>8.4989031908284094</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>10.115986363248201</v>
+            <v>10.516879042099999</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>12.5770852970562</v>
+            <v>13.011636235821999</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>15.6472401858976</v>
+            <v>16.107594260890799</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>19.484056525395001</v>
+            <v>19.957545304909399</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>24.2756696552546</v>
+            <v>24.7430529814789</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>30.244552668062202</v>
+            <v>30.677027111130698</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>37.661814309310401</v>
+            <v>38.016462271278598</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>46.870440241827701</v>
+            <v>47.084099097462499</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>58.312197823817698</v>
+            <v>58.293890487658601</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>72.553138252384798</v>
+            <v>72.175096615116104</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>90.305462625505101</v>
+            <v>89.3923750983286</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>112.444439555996</v>
+            <v>110.75979516436701</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>140.03384589181101</v>
+            <v>137.26131947934499</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>174.37348238302999</v>
+            <v>170.090901146085</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>217.07532698871901</v>
+            <v>210.71897161418201</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>270.16644028928101</v>
+            <v>260.98397744243698</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>336.21160620730802</v>
+            <v>323.20237578927203</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>418.43866070589098</v>
+            <v>400.27982188004898</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21">
-            <v>520.86594939871702</v>
+            <v>495.82086918431997</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
-            <v>648.45201496026596</v>
+            <v>614.25382201946604</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23">
-            <v>807.30031446388205</v>
+            <v>760.99997782676201</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24">
-            <v>1004.9519997254999</v>
+            <v>942.71774998769001</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25">
-            <v>1250.7932806737799</v>
+            <v>1167.64718837089</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26">
-            <v>1556.5699870665001</v>
+            <v>1446.0485637791401</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27">
-            <v>1936.9859406686001</v>
+            <v>1790.71155044837</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>2410.3759156804299</v>
+            <v>2217.5214683229401</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29">
-            <v>2999.48097741641</v>
+            <v>2746.1006383829199</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30">
-            <v>3732.3962149030599</v>
+            <v>3400.5809001846701</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31">
-            <v>4643.8058107070101</v>
+            <v>4210.6065430700401</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32">
-            <v>5776.6082243082701</v>
+            <v>5212.6597056727796</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33">
-            <v>7183.9794246649599</v>
+            <v>6451.7528398477598</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34">
-            <v>8931.86551075241</v>
+            <v>7983.4802572260796</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35">
-            <v>11101.8748941249</v>
+            <v>9876.3969907439805</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36">
-            <v>13794.5649894086</v>
+            <v>12214.709874628001</v>
           </cell>
         </row>
         <row r="37">
           <cell r="B37">
-            <v>17133.217289859102</v>
+            <v>15101.353575896101</v>
           </cell>
         </row>
       </sheetData>
@@ -1557,191 +1560,168 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="modeled1"/>
+      <sheetName val="COVID19_by_day"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>8.1357604512260302</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>10.115986363248201</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>12.5770852970562</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>15.6472401858976</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>19.484056525395001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>24.2756696552546</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>30.244552668062202</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>37.661814309310401</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>46.870440241827701</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>58.312197823817698</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>72.553138252384798</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>90.305462625505101</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>112.444439555996</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>140.03384589181101</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>174.37348238302999</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>217.07532698871901</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>270.16644028928101</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>336.21160620730802</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>418.43866070589098</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>520.86594939871702</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>648.45201496026596</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>807.30031446388205</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>1004.9519997254999</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>1250.7932806737799</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>1556.5699870665001</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>1936.9859406686001</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>2410.3759156804299</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>2517.4859269051499</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>2650.8221048697801</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>2816.7531989558702</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>3023.1802461217098</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>3279.9339545395001</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>3599.2626420913498</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>3900.4374814923599</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>4179.1072100121301</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>4429.8553501774204</v>
+        <row r="43">
+          <cell r="G43">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="G44">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="G45">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="G51">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="G54">
+            <v>71</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="G55">
+            <v>103</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="G56">
+            <v>144</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="G57">
+            <v>177</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="G58">
+            <v>233</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="G59">
+            <v>281</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="G60">
+            <v>335</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="G61">
+            <v>422</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="G62">
+            <v>463</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="G63">
+            <v>578</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="G64">
+            <v>759</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="G65">
+            <v>1019</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="G66">
+            <v>1228</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="G67">
+            <v>1408</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="G68">
+            <v>1789</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="G69">
+            <v>2352</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="G70">
+            <v>2921</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="G71">
+            <v>3605</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="G72">
+            <v>4313</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="G73">
+            <v>4934</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1751,158 +1731,188 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="COVID19_by_day"/>
+      <sheetName val="modeled1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="43">
-          <cell r="G43">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="G44">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="G45">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="G46">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="G47">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="G48">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="G49">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="G50">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="G51">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="G52">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="G53">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="G54">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="G55">
-            <v>103</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="G56">
-            <v>144</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="G57">
-            <v>177</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="G58">
-            <v>233</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="G59">
-            <v>281</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="G60">
-            <v>335</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="G61">
-            <v>422</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="G62">
-            <v>463</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="G63">
-            <v>578</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="G64">
-            <v>759</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="G65">
-            <v>1019</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="G66">
-            <v>1228</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="G67">
-            <v>1408</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="G68">
-            <v>1789</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="G69">
-            <v>2352</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="G70">
-            <v>2921</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="G71">
-            <v>3605</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="G72">
-            <v>4313</v>
+        <row r="2">
+          <cell r="B2">
+            <v>8.4989031908284094</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>10.516879042099999</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>13.011636235821999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>16.107594260890799</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>19.957545304909399</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>24.7430529814789</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>30.677027111130698</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>38.016462271278598</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>47.084099097462499</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>58.293890487658601</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>72.175096615116104</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>89.3923750983286</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>110.75979516436701</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>137.26131947934499</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>170.090901146085</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>210.71897161418201</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>260.98397744243698</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>323.20237578927203</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>400.27982188004898</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>495.82086918431997</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>614.25382201946604</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>760.99997782676201</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>942.71774998769001</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>1167.64718837089</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>1446.0485637791401</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>1790.71155044837</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>2217.5214683229401</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>2317.25338720219</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>2440.80523044854</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>2593.8204517017002</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>2783.2629652906498</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>3017.75338921402</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>3307.98229084575</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>3581.7769512728801</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>3835.2928561284102</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>4063.7702179013299</v>
           </cell>
         </row>
       </sheetData>
@@ -2176,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,15 +2217,15 @@
       </c>
       <c r="B2" s="4">
         <f>[1]modeled!$B2</f>
-        <v>8.1357604512260302</v>
+        <v>8.4989031908284094</v>
       </c>
       <c r="C2" s="4">
-        <f>[3]COVID19_by_day!G43</f>
+        <f>[2]COVID19_by_day!G43</f>
         <v>1</v>
       </c>
       <c r="D2" s="4">
-        <f>[2]modeled1!$B2</f>
-        <v>8.1357604512260302</v>
+        <f>[3]modeled1!$B2</f>
+        <v>8.4989031908284094</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2224,15 +2234,15 @@
       </c>
       <c r="B3" s="4">
         <f>[1]modeled!$B3</f>
-        <v>10.115986363248201</v>
+        <v>10.516879042099999</v>
       </c>
       <c r="C3" s="4">
-        <f>[3]COVID19_by_day!G44</f>
+        <f>[2]COVID19_by_day!G44</f>
         <v>2</v>
       </c>
       <c r="D3" s="4">
-        <f>[2]modeled1!$B3</f>
-        <v>10.115986363248201</v>
+        <f>[3]modeled1!$B3</f>
+        <v>10.516879042099999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2241,15 +2251,15 @@
       </c>
       <c r="B4" s="4">
         <f>[1]modeled!$B4</f>
-        <v>12.5770852970562</v>
+        <v>13.011636235821999</v>
       </c>
       <c r="C4" s="4">
-        <f>[3]COVID19_by_day!G45</f>
+        <f>[2]COVID19_by_day!G45</f>
         <v>2</v>
       </c>
       <c r="D4" s="4">
-        <f>[2]modeled1!$B4</f>
-        <v>12.5770852970562</v>
+        <f>[3]modeled1!$B4</f>
+        <v>13.011636235821999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2258,15 +2268,15 @@
       </c>
       <c r="B5" s="4">
         <f>[1]modeled!$B5</f>
-        <v>15.6472401858976</v>
+        <v>16.107594260890799</v>
       </c>
       <c r="C5" s="4">
-        <f>[3]COVID19_by_day!G46</f>
+        <f>[2]COVID19_by_day!G46</f>
         <v>3</v>
       </c>
       <c r="D5" s="4">
-        <f>[2]modeled1!$B5</f>
-        <v>15.6472401858976</v>
+        <f>[3]modeled1!$B5</f>
+        <v>16.107594260890799</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,15 +2285,15 @@
       </c>
       <c r="B6" s="4">
         <f>[1]modeled!$B6</f>
-        <v>19.484056525395001</v>
+        <v>19.957545304909399</v>
       </c>
       <c r="C6" s="4">
-        <f>[3]COVID19_by_day!G47</f>
+        <f>[2]COVID19_by_day!G47</f>
         <v>6</v>
       </c>
       <c r="D6" s="4">
-        <f>[2]modeled1!$B6</f>
-        <v>19.484056525395001</v>
+        <f>[3]modeled1!$B6</f>
+        <v>19.957545304909399</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2292,15 +2302,15 @@
       </c>
       <c r="B7" s="4">
         <f>[1]modeled!$B7</f>
-        <v>24.2756696552546</v>
+        <v>24.7430529814789</v>
       </c>
       <c r="C7" s="4">
-        <f>[3]COVID19_by_day!G48</f>
+        <f>[2]COVID19_by_day!G48</f>
         <v>6</v>
       </c>
       <c r="D7" s="4">
-        <f>[2]modeled1!$B7</f>
-        <v>24.2756696552546</v>
+        <f>[3]modeled1!$B7</f>
+        <v>24.7430529814789</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,15 +2319,15 @@
       </c>
       <c r="B8" s="4">
         <f>[1]modeled!$B8</f>
-        <v>30.244552668062202</v>
+        <v>30.677027111130698</v>
       </c>
       <c r="C8" s="4">
-        <f>[3]COVID19_by_day!G49</f>
+        <f>[2]COVID19_by_day!G49</f>
         <v>8</v>
       </c>
       <c r="D8" s="4">
-        <f>[2]modeled1!$B8</f>
-        <v>30.244552668062202</v>
+        <f>[3]modeled1!$B8</f>
+        <v>30.677027111130698</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2326,15 +2336,15 @@
       </c>
       <c r="B9" s="4">
         <f>[1]modeled!$B9</f>
-        <v>37.661814309310401</v>
+        <v>38.016462271278598</v>
       </c>
       <c r="C9" s="4">
-        <f>[3]COVID19_by_day!G50</f>
+        <f>[2]COVID19_by_day!G50</f>
         <v>10</v>
       </c>
       <c r="D9" s="4">
-        <f>[2]modeled1!$B9</f>
-        <v>37.661814309310401</v>
+        <f>[3]modeled1!$B9</f>
+        <v>38.016462271278598</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2343,15 +2353,15 @@
       </c>
       <c r="B10" s="4">
         <f>[1]modeled!$B10</f>
-        <v>46.870440241827701</v>
+        <v>47.084099097462499</v>
       </c>
       <c r="C10" s="4">
-        <f>[3]COVID19_by_day!G51</f>
+        <f>[2]COVID19_by_day!G51</f>
         <v>21</v>
       </c>
       <c r="D10" s="4">
-        <f>[2]modeled1!$B10</f>
-        <v>46.870440241827701</v>
+        <f>[3]modeled1!$B10</f>
+        <v>47.084099097462499</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2360,15 +2370,15 @@
       </c>
       <c r="B11" s="4">
         <f>[1]modeled!$B11</f>
-        <v>58.312197823817698</v>
+        <v>58.293890487658601</v>
       </c>
       <c r="C11" s="4">
-        <f>[3]COVID19_by_day!G52</f>
+        <f>[2]COVID19_by_day!G52</f>
         <v>35</v>
       </c>
       <c r="D11" s="4">
-        <f>[2]modeled1!$B11</f>
-        <v>58.312197823817698</v>
+        <f>[3]modeled1!$B11</f>
+        <v>58.293890487658601</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,15 +2387,15 @@
       </c>
       <c r="B12" s="4">
         <f>[1]modeled!$B12</f>
-        <v>72.553138252384798</v>
+        <v>72.175096615116104</v>
       </c>
       <c r="C12" s="4">
-        <f>[3]COVID19_by_day!G53</f>
+        <f>[2]COVID19_by_day!G53</f>
         <v>55</v>
       </c>
       <c r="D12" s="4">
-        <f>[2]modeled1!$B12</f>
-        <v>72.553138252384798</v>
+        <f>[3]modeled1!$B12</f>
+        <v>72.175096615116104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,15 +2404,15 @@
       </c>
       <c r="B13" s="4">
         <f>[1]modeled!$B13</f>
-        <v>90.305462625505101</v>
+        <v>89.3923750983286</v>
       </c>
       <c r="C13" s="4">
-        <f>[3]COVID19_by_day!G54</f>
+        <f>[2]COVID19_by_day!G54</f>
         <v>71</v>
       </c>
       <c r="D13" s="4">
-        <f>[2]modeled1!$B13</f>
-        <v>90.305462625505101</v>
+        <f>[3]modeled1!$B13</f>
+        <v>89.3923750983286</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,15 +2421,15 @@
       </c>
       <c r="B14" s="4">
         <f>[1]modeled!$B14</f>
-        <v>112.444439555996</v>
+        <v>110.75979516436701</v>
       </c>
       <c r="C14" s="4">
-        <f>[3]COVID19_by_day!G55</f>
+        <f>[2]COVID19_by_day!G55</f>
         <v>103</v>
       </c>
       <c r="D14" s="4">
-        <f>[2]modeled1!$B14</f>
-        <v>112.444439555996</v>
+        <f>[3]modeled1!$B14</f>
+        <v>110.75979516436701</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2428,15 +2438,15 @@
       </c>
       <c r="B15" s="4">
         <f>[1]modeled!$B15</f>
-        <v>140.03384589181101</v>
+        <v>137.26131947934499</v>
       </c>
       <c r="C15" s="4">
-        <f>[3]COVID19_by_day!G56</f>
+        <f>[2]COVID19_by_day!G56</f>
         <v>144</v>
       </c>
       <c r="D15" s="4">
-        <f>[2]modeled1!$B15</f>
-        <v>140.03384589181101</v>
+        <f>[3]modeled1!$B15</f>
+        <v>137.26131947934499</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2445,15 +2455,15 @@
       </c>
       <c r="B16" s="4">
         <f>[1]modeled!$B16</f>
-        <v>174.37348238302999</v>
+        <v>170.090901146085</v>
       </c>
       <c r="C16" s="4">
-        <f>[3]COVID19_by_day!G57</f>
+        <f>[2]COVID19_by_day!G57</f>
         <v>177</v>
       </c>
       <c r="D16" s="4">
-        <f>[2]modeled1!$B16</f>
-        <v>174.37348238302999</v>
+        <f>[3]modeled1!$B16</f>
+        <v>170.090901146085</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2462,15 +2472,15 @@
       </c>
       <c r="B17" s="4">
         <f>[1]modeled!$B17</f>
-        <v>217.07532698871901</v>
+        <v>210.71897161418201</v>
       </c>
       <c r="C17" s="4">
-        <f>[3]COVID19_by_day!G58</f>
+        <f>[2]COVID19_by_day!G58</f>
         <v>233</v>
       </c>
       <c r="D17" s="4">
-        <f>[2]modeled1!$B17</f>
-        <v>217.07532698871901</v>
+        <f>[3]modeled1!$B17</f>
+        <v>210.71897161418201</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2479,15 +2489,15 @@
       </c>
       <c r="B18" s="4">
         <f>[1]modeled!$B18</f>
-        <v>270.16644028928101</v>
+        <v>260.98397744243698</v>
       </c>
       <c r="C18" s="4">
-        <f>[3]COVID19_by_day!G59</f>
+        <f>[2]COVID19_by_day!G59</f>
         <v>281</v>
       </c>
       <c r="D18" s="4">
-        <f>[2]modeled1!$B18</f>
-        <v>270.16644028928101</v>
+        <f>[3]modeled1!$B18</f>
+        <v>260.98397744243698</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,15 +2506,15 @@
       </c>
       <c r="B19" s="4">
         <f>[1]modeled!$B19</f>
-        <v>336.21160620730802</v>
+        <v>323.20237578927203</v>
       </c>
       <c r="C19" s="4">
-        <f>[3]COVID19_by_day!G60</f>
+        <f>[2]COVID19_by_day!G60</f>
         <v>335</v>
       </c>
       <c r="D19" s="4">
-        <f>[2]modeled1!$B19</f>
-        <v>336.21160620730802</v>
+        <f>[3]modeled1!$B19</f>
+        <v>323.20237578927203</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,15 +2523,15 @@
       </c>
       <c r="B20" s="4">
         <f>[1]modeled!$B20</f>
-        <v>418.43866070589098</v>
+        <v>400.27982188004898</v>
       </c>
       <c r="C20" s="4">
-        <f>[3]COVID19_by_day!G61</f>
+        <f>[2]COVID19_by_day!G61</f>
         <v>422</v>
       </c>
       <c r="D20" s="4">
-        <f>[2]modeled1!$B20</f>
-        <v>418.43866070589098</v>
+        <f>[3]modeled1!$B20</f>
+        <v>400.27982188004898</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2530,15 +2540,15 @@
       </c>
       <c r="B21" s="4">
         <f>[1]modeled!$B21</f>
-        <v>520.86594939871702</v>
+        <v>495.82086918431997</v>
       </c>
       <c r="C21" s="4">
-        <f>[3]COVID19_by_day!G62</f>
+        <f>[2]COVID19_by_day!G62</f>
         <v>463</v>
       </c>
       <c r="D21" s="4">
-        <f>[2]modeled1!$B21</f>
-        <v>520.86594939871702</v>
+        <f>[3]modeled1!$B21</f>
+        <v>495.82086918431997</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,15 +2557,15 @@
       </c>
       <c r="B22" s="4">
         <f>[1]modeled!$B22</f>
-        <v>648.45201496026596</v>
+        <v>614.25382201946604</v>
       </c>
       <c r="C22" s="4">
-        <f>[3]COVID19_by_day!G63</f>
+        <f>[2]COVID19_by_day!G63</f>
         <v>578</v>
       </c>
       <c r="D22" s="4">
-        <f>[2]modeled1!$B22</f>
-        <v>648.45201496026596</v>
+        <f>[3]modeled1!$B22</f>
+        <v>614.25382201946604</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2564,15 +2574,15 @@
       </c>
       <c r="B23" s="4">
         <f>[1]modeled!$B23</f>
-        <v>807.30031446388205</v>
+        <v>760.99997782676201</v>
       </c>
       <c r="C23" s="4">
-        <f>[3]COVID19_by_day!G64</f>
+        <f>[2]COVID19_by_day!G64</f>
         <v>759</v>
       </c>
       <c r="D23" s="4">
-        <f>[2]modeled1!$B23</f>
-        <v>807.30031446388205</v>
+        <f>[3]modeled1!$B23</f>
+        <v>760.99997782676201</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2581,15 +2591,15 @@
       </c>
       <c r="B24">
         <f>[1]modeled!$B24</f>
-        <v>1004.9519997254999</v>
+        <v>942.71774998769001</v>
       </c>
       <c r="C24">
-        <f>[3]COVID19_by_day!G65</f>
+        <f>[2]COVID19_by_day!G65</f>
         <v>1019</v>
       </c>
       <c r="D24">
-        <f>[2]modeled1!$B24</f>
-        <v>1004.9519997254999</v>
+        <f>[3]modeled1!$B24</f>
+        <v>942.71774998769001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2598,15 +2608,15 @@
       </c>
       <c r="B25">
         <f>[1]modeled!$B25</f>
-        <v>1250.7932806737799</v>
+        <v>1167.64718837089</v>
       </c>
       <c r="C25">
-        <f>[3]COVID19_by_day!G66</f>
+        <f>[2]COVID19_by_day!G66</f>
         <v>1228</v>
       </c>
       <c r="D25">
-        <f>[2]modeled1!$B25</f>
-        <v>1250.7932806737799</v>
+        <f>[3]modeled1!$B25</f>
+        <v>1167.64718837089</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2615,15 +2625,15 @@
       </c>
       <c r="B26">
         <f>[1]modeled!$B26</f>
-        <v>1556.5699870665001</v>
+        <v>1446.0485637791401</v>
       </c>
       <c r="C26">
-        <f>[3]COVID19_by_day!G67</f>
+        <f>[2]COVID19_by_day!G67</f>
         <v>1408</v>
       </c>
       <c r="D26">
-        <f>[2]modeled1!$B26</f>
-        <v>1556.5699870665001</v>
+        <f>[3]modeled1!$B26</f>
+        <v>1446.0485637791401</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2632,15 +2642,15 @@
       </c>
       <c r="B27">
         <f>[1]modeled!$B27</f>
-        <v>1936.9859406686001</v>
+        <v>1790.71155044837</v>
       </c>
       <c r="C27">
-        <f>[3]COVID19_by_day!G68</f>
+        <f>[2]COVID19_by_day!G68</f>
         <v>1789</v>
       </c>
       <c r="D27">
-        <f>[2]modeled1!$B27</f>
-        <v>1936.9859406686001</v>
+        <f>[3]modeled1!$B27</f>
+        <v>1790.71155044837</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2649,15 +2659,15 @@
       </c>
       <c r="B28">
         <f>[1]modeled!$B28</f>
-        <v>2410.3759156804299</v>
+        <v>2217.5214683229401</v>
       </c>
       <c r="C28">
-        <f>[3]COVID19_by_day!G69</f>
+        <f>[2]COVID19_by_day!G69</f>
         <v>2352</v>
       </c>
       <c r="D28">
-        <f>[2]modeled1!$B28</f>
-        <v>2410.3759156804299</v>
+        <f>[3]modeled1!$B28</f>
+        <v>2217.5214683229401</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2666,15 +2676,15 @@
       </c>
       <c r="B29">
         <f>[1]modeled!$B29</f>
-        <v>2999.48097741641</v>
+        <v>2746.1006383829199</v>
       </c>
       <c r="C29">
-        <f>[3]COVID19_by_day!G70</f>
+        <f>[2]COVID19_by_day!G70</f>
         <v>2921</v>
       </c>
       <c r="D29">
-        <f>[2]modeled1!$B29</f>
-        <v>2517.4859269051499</v>
+        <f>[3]modeled1!$B29</f>
+        <v>2317.25338720219</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2683,15 +2693,15 @@
       </c>
       <c r="B30">
         <f>[1]modeled!$B30</f>
-        <v>3732.3962149030599</v>
+        <v>3400.5809001846701</v>
       </c>
       <c r="C30">
-        <f>[3]COVID19_by_day!G71</f>
+        <f>[2]COVID19_by_day!G71</f>
         <v>3605</v>
       </c>
       <c r="D30">
-        <f>[2]modeled1!$B30</f>
-        <v>2650.8221048697801</v>
+        <f>[3]modeled1!$B30</f>
+        <v>2440.80523044854</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,15 +2710,15 @@
       </c>
       <c r="B31">
         <f>[1]modeled!$B31</f>
-        <v>4643.8058107070101</v>
+        <v>4210.6065430700401</v>
       </c>
       <c r="C31">
-        <f>[3]COVID19_by_day!G72</f>
+        <f>[2]COVID19_by_day!G72</f>
         <v>4313</v>
       </c>
       <c r="D31">
-        <f>[2]modeled1!$B31</f>
-        <v>2816.7531989558702</v>
+        <f>[3]modeled1!$B31</f>
+        <v>2593.8204517017002</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2717,15 +2727,15 @@
       </c>
       <c r="B32">
         <f>[1]modeled!$B32</f>
-        <v>5776.6082243082701</v>
+        <v>5212.6597056727796</v>
       </c>
       <c r="C32">
-        <f>[3]COVID19_by_day!G73</f>
-        <v>0</v>
+        <f>[2]COVID19_by_day!G73</f>
+        <v>4934</v>
       </c>
       <c r="D32">
-        <f>[2]modeled1!$B32</f>
-        <v>3023.1802461217098</v>
+        <f>[3]modeled1!$B32</f>
+        <v>2783.2629652906498</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,15 +2744,15 @@
       </c>
       <c r="B33">
         <f>[1]modeled!$B33</f>
-        <v>7183.9794246649599</v>
+        <v>6451.7528398477598</v>
       </c>
       <c r="C33">
-        <f>[3]COVID19_by_day!G74</f>
+        <f>[2]COVID19_by_day!G74</f>
         <v>0</v>
       </c>
       <c r="D33">
-        <f>[2]modeled1!$B33</f>
-        <v>3279.9339545395001</v>
+        <f>[3]modeled1!$B33</f>
+        <v>3017.75338921402</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2751,15 +2761,15 @@
       </c>
       <c r="B34">
         <f>[1]modeled!$B34</f>
-        <v>8931.86551075241</v>
+        <v>7983.4802572260796</v>
       </c>
       <c r="C34">
-        <f>[3]COVID19_by_day!G75</f>
+        <f>[2]COVID19_by_day!G75</f>
         <v>0</v>
       </c>
       <c r="D34">
-        <f>[2]modeled1!$B34</f>
-        <v>3599.2626420913498</v>
+        <f>[3]modeled1!$B34</f>
+        <v>3307.98229084575</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2768,15 +2778,15 @@
       </c>
       <c r="B35">
         <f>[1]modeled!$B35</f>
-        <v>11101.8748941249</v>
+        <v>9876.3969907439805</v>
       </c>
       <c r="C35">
-        <f>[3]COVID19_by_day!G76</f>
+        <f>[2]COVID19_by_day!G76</f>
         <v>0</v>
       </c>
       <c r="D35">
-        <f>[2]modeled1!$B35</f>
-        <v>3900.4374814923599</v>
+        <f>[3]modeled1!$B35</f>
+        <v>3581.7769512728801</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2785,15 +2795,15 @@
       </c>
       <c r="B36">
         <f>[1]modeled!$B36</f>
-        <v>13794.5649894086</v>
+        <v>12214.709874628001</v>
       </c>
       <c r="C36">
-        <f>[3]COVID19_by_day!G77</f>
+        <f>[2]COVID19_by_day!G77</f>
         <v>0</v>
       </c>
       <c r="D36">
-        <f>[2]modeled1!$B36</f>
-        <v>4179.1072100121301</v>
+        <f>[3]modeled1!$B36</f>
+        <v>3835.2928561284102</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2802,15 +2812,15 @@
       </c>
       <c r="B37">
         <f>[1]modeled!$B37</f>
-        <v>17133.217289859102</v>
+        <v>15101.353575896101</v>
       </c>
       <c r="C37">
-        <f>[3]COVID19_by_day!G78</f>
+        <f>[2]COVID19_by_day!G78</f>
         <v>0</v>
       </c>
       <c r="D37">
-        <f>[2]modeled1!$B37</f>
-        <v>4429.8553501774204</v>
+        <f>[3]modeled1!$B37</f>
+        <v>4063.7702179013299</v>
       </c>
     </row>
   </sheetData>
